--- a/data/Roll Optimization tool.xlsx
+++ b/data/Roll Optimization tool.xlsx
@@ -13108,8 +13108,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100301B99BE6876C94EACF0B0B797FB34F6" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd5222f56c419b681f5f2ed4ced1d260">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b8d5096-1bb7-414f-af5c-2411680bf71e" xmlns:ns3="71131562-680c-40ca-8cdb-dfe716e567b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85d1e710a512070d7aaa96fdd7963702" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100301B99BE6876C94EACF0B0B797FB34F6" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="36a7aca837fd54e25aefda21ed2b53c9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b8d5096-1bb7-414f-af5c-2411680bf71e" xmlns:ns3="71131562-680c-40ca-8cdb-dfe716e567b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d39dda42ee086c0630f7ee70eb514390" ns2:_="" ns3:_="">
     <xsd:import namespace="4b8d5096-1bb7-414f-af5c-2411680bf71e"/>
     <xsd:import namespace="71131562-680c-40ca-8cdb-dfe716e567b7"/>
     <xsd:element name="properties">
@@ -13162,7 +13162,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d453ae97-cd49-4d15-b055-69e640f03337" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d453ae97-cd49-4d15-b055-69e640f03337" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -13216,7 +13216,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -13235,7 +13235,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -13252,8 +13252,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -13362,20 +13362,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B95CF8B-0B46-43CB-B652-98B0EF25ECC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b8d5096-1bb7-414f-af5c-2411680bf71e"/>
-    <ds:schemaRef ds:uri="71131562-680c-40ca-8cdb-dfe716e567b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04626C3A-5891-470E-BBCE-4AC2F371C923}"/>
 </file>